--- a/spliced/walkingToRunning/2023-03-30_14-23-33/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-23-33/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-8.089916832306811</v>
+        <v>-7.313242021728997</v>
       </c>
       <c r="B2" t="n">
-        <v>-7.794766384012551</v>
+        <v>-8.175233658622219</v>
       </c>
       <c r="C2" t="n">
-        <v>4.25856484151354</v>
+        <v>2.331058922935893</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-8.562996188799541</v>
+        <v>-8.089916832306811</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.62869268538905</v>
+        <v>-7.794766384012551</v>
       </c>
       <c r="C3" t="n">
-        <v>4.021127045154572</v>
+        <v>4.25856484151354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-8.465083991779997</v>
+        <v>-8.562996188799541</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.572577813092403</v>
+        <v>-5.62869268538905</v>
       </c>
       <c r="C4" t="n">
-        <v>3.310186512330003</v>
+        <v>4.021127045154572</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-7.515201767285651</v>
+        <v>-8.465083991779997</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.813795685768134</v>
+        <v>-5.572577813092403</v>
       </c>
       <c r="C5" t="n">
-        <v>2.080139199892673</v>
+        <v>3.310186512330003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.889640840829573</v>
+        <v>-7.515201767285651</v>
       </c>
       <c r="B6" t="n">
-        <v>-6.183977889079673</v>
+        <v>-5.813795685768134</v>
       </c>
       <c r="C6" t="n">
-        <v>3.298035799288292</v>
+        <v>2.080139199892673</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.032402010524974</v>
+        <v>-3.889640840829573</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.917088676901407</v>
+        <v>-6.183977889079673</v>
       </c>
       <c r="C7" t="n">
-        <v>5.917996553813698</v>
+        <v>3.298035799288292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.8607274410771413</v>
+        <v>-2.032402010524974</v>
       </c>
       <c r="B8" t="n">
-        <v>-18.58178931591555</v>
+        <v>-7.917088676901407</v>
       </c>
       <c r="C8" t="n">
-        <v>10.12933701159906</v>
+        <v>5.917996553813698</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-3.271800985523277</v>
+        <v>-0.8607274410771413</v>
       </c>
       <c r="B9" t="n">
-        <v>-15.36747401835878</v>
+        <v>-18.58178931591555</v>
       </c>
       <c r="C9" t="n">
-        <v>6.096988180104466</v>
+        <v>10.12933701159906</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-14.65323523914104</v>
+        <v>-3.271800985523277</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.466919653555957</v>
+        <v>-15.36747401835878</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.7585973178638932</v>
+        <v>6.096988180104466</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-22.51664300058401</v>
+        <v>-14.65323523914104</v>
       </c>
       <c r="B11" t="n">
-        <v>-7.749673447188126</v>
+        <v>-4.466919653555957</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.398741133072749</v>
+        <v>-0.7585973178638932</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-18.3769370060341</v>
+        <v>-22.51664300058401</v>
       </c>
       <c r="B12" t="n">
-        <v>-24.21302471908869</v>
+        <v>-7.749673447188126</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6640657630621334</v>
+        <v>-5.398741133072749</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-11.91456683944254</v>
+        <v>-18.3769370060341</v>
       </c>
       <c r="B13" t="n">
-        <v>-23.90803286608531</v>
+        <v>-24.21302471908869</v>
       </c>
       <c r="C13" t="n">
-        <v>10.49638333040125</v>
+        <v>0.6640657630621334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-4.779002170936772</v>
+        <v>-11.91456683944254</v>
       </c>
       <c r="B14" t="n">
-        <v>-4.17006232224267</v>
+        <v>-23.90803286608531</v>
       </c>
       <c r="C14" t="n">
-        <v>11.643902759926</v>
+        <v>10.49638333040125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3725347098182305</v>
+        <v>-4.779002170936772</v>
       </c>
       <c r="B15" t="n">
-        <v>-30.31529621750734</v>
+        <v>-4.17006232224267</v>
       </c>
       <c r="C15" t="n">
-        <v>8.55354468495236</v>
+        <v>11.643902759926</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-15.74266366397642</v>
+        <v>0.3725347098182305</v>
       </c>
       <c r="B16" t="n">
-        <v>-20.48928019579699</v>
+        <v>-30.31529621750734</v>
       </c>
       <c r="C16" t="n">
-        <v>1.483265680425281</v>
+        <v>8.55354468495236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-19.33448225376665</v>
+        <v>-15.74266366397642</v>
       </c>
       <c r="B17" t="n">
-        <v>2.267985530928218</v>
+        <v>-20.48928019579699</v>
       </c>
       <c r="C17" t="n">
-        <v>5.825747468892169</v>
+        <v>1.483265680425281</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.347560611425691</v>
+        <v>-19.33448225376665</v>
       </c>
       <c r="B18" t="n">
-        <v>-14.70038807625862</v>
+        <v>2.267985530928218</v>
       </c>
       <c r="C18" t="n">
-        <v>10.01127913886427</v>
+        <v>5.825747468892169</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7.625993616440701</v>
+        <v>-1.347560611425691</v>
       </c>
       <c r="B19" t="n">
-        <v>-13.20338362104757</v>
+        <v>-14.70038807625862</v>
       </c>
       <c r="C19" t="n">
-        <v>14.98549651398371</v>
+        <v>10.01127913886427</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.7890216976987219</v>
+        <v>7.625993616440701</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.09984105241075003</v>
+        <v>-13.20338362104757</v>
       </c>
       <c r="C20" t="n">
-        <v>12.88112398222394</v>
+        <v>14.98549651398371</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.7890216976987219</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.09984105241075003</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12.88112398222394</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>-7.435094737539091</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>-33.73446517364671</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>13.88054672058896</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7.333738565444815</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-26.17261409759575</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7.461308479309277</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.3924275192565041</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8.770900960062418</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-10.52958610946054</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-27.41900163538287</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-21.30080885045613</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.806023990406281</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-26.291865657358</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-17.62141748035735</v>
+      </c>
+      <c r="C26" t="n">
+        <v>14.67751483356255</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-12.81046040852863</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7.074593609454595</v>
+      </c>
+      <c r="C27" t="n">
+        <v>12.13140960768156</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-5.703531527051739</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-11.14156565946689</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10.64924546316558</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5.73159689061778</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-12.49397951013913</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.91989309647508</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-10.9989599106356</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.90863177355609</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-9.010537198945535</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9.205162721520956</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-32.48499697329918</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-12.15963486129167</v>
       </c>
     </row>
   </sheetData>
